--- a/Resources/GettingStartedWithFMEForm/Tabular/EmployeeRecord.xlsx
+++ b/Resources/GettingStartedWithFMEForm/Tabular/EmployeeRecord.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz.sanderson/Documents/a. Safe Projects/ProductOnboarding/GettingStarted/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam.walker_safe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FEE804-82C3-5142-9A92-D10813287640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53860F3-26D9-4167-8271-70BAE0E36D31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
-    <sheet name="Active" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1460" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="632">
   <si>
     <t>Employee Number</t>
   </si>
@@ -1922,7 +1921,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1962,8 +1961,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1982,7 +1981,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2133,7 +2132,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2157,9 +2156,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2183,7 +2182,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2218,7 +2217,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2236,7 +2235,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2261,7 +2260,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -2277,23 +2276,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D326"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="2" customWidth="true"/>
-    <col min="2" max="2" width="20.6640625" style="2" customWidth="true"/>
-    <col min="3" max="3" width="21.6640625" style="2" customWidth="true"/>
-    <col min="4" max="4" width="27.33203125" style="2" customWidth="true"/>
-    <col min="5" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="21.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.95">
       <c r="A2" s="2">
         <v>100653</v>
       </c>
@@ -2321,7 +2320,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.95">
       <c r="A3" s="2">
         <v>100670</v>
       </c>
@@ -2335,7 +2334,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.95">
       <c r="A4" s="2">
         <v>100534</v>
       </c>
@@ -2349,7 +2348,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.95">
       <c r="A5" s="2">
         <v>100573</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.95">
       <c r="A6" s="2">
         <v>100688</v>
       </c>
@@ -2377,7 +2376,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.95">
       <c r="A7" s="2">
         <v>100809</v>
       </c>
@@ -2391,7 +2390,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.95">
       <c r="A8" s="2">
         <v>100597</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.95">
       <c r="A9" s="2">
         <v>100798</v>
       </c>
@@ -2419,7 +2418,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.95">
       <c r="A10" s="2">
         <v>100645</v>
       </c>
@@ -2433,7 +2432,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.95">
       <c r="A11" s="2">
         <v>100733</v>
       </c>
@@ -2447,7 +2446,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.95">
       <c r="A12" s="2">
         <v>100596</v>
       </c>
@@ -2461,7 +2460,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.95">
       <c r="A13" s="2">
         <v>100544</v>
       </c>
@@ -2475,7 +2474,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.95">
       <c r="A14" s="2">
         <v>100795</v>
       </c>
@@ -2489,7 +2488,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.95">
       <c r="A15" s="2">
         <v>100793</v>
       </c>
@@ -2503,7 +2502,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.95">
       <c r="A16" s="2">
         <v>100586</v>
       </c>
@@ -2517,7 +2516,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.95">
       <c r="A17" s="2">
         <v>100564</v>
       </c>
@@ -2531,7 +2530,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15.95">
       <c r="A18" s="2">
         <v>100642</v>
       </c>
@@ -2545,7 +2544,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.95">
       <c r="A19" s="2">
         <v>100699</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.95">
       <c r="A20" s="2">
         <v>100792</v>
       </c>
@@ -2573,7 +2572,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.95">
       <c r="A21" s="2">
         <v>100796</v>
       </c>
@@ -2587,7 +2586,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15.95">
       <c r="A22" s="2">
         <v>100622</v>
       </c>
@@ -2601,7 +2600,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15.95">
       <c r="A23" s="2">
         <v>100770</v>
       </c>
@@ -2615,7 +2614,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15.95">
       <c r="A24" s="2">
         <v>100621</v>
       </c>
@@ -2629,7 +2628,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>100736</v>
       </c>
@@ -2643,7 +2642,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>100509</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>100689</v>
       </c>
@@ -2671,7 +2670,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>100766</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>100623</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>100780</v>
       </c>
@@ -2713,7 +2712,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>100530</v>
       </c>
@@ -2727,7 +2726,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="2">
         <v>100542</v>
       </c>
@@ -2741,7 +2740,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="2">
         <v>100776</v>
       </c>
@@ -2755,7 +2754,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="2">
         <v>100808</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="2">
         <v>100756</v>
       </c>
@@ -2783,7 +2782,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="2">
         <v>100526</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>100664</v>
       </c>
@@ -2811,7 +2810,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="2">
         <v>100593</v>
       </c>
@@ -2825,7 +2824,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="2">
         <v>100504</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="2">
         <v>100703</v>
       </c>
@@ -2853,7 +2852,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="41" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="2">
         <v>100696</v>
       </c>
@@ -2867,7 +2866,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="2">
         <v>100561</v>
       </c>
@@ -2881,7 +2880,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="43" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="2">
         <v>100513</v>
       </c>
@@ -2895,7 +2894,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="44" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="2">
         <v>100524</v>
       </c>
@@ -2909,7 +2908,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2">
         <v>100616</v>
       </c>
@@ -2923,7 +2922,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="46" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2">
         <v>100704</v>
       </c>
@@ -2937,7 +2936,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="47" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="2">
         <v>100655</v>
       </c>
@@ -2951,7 +2950,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="2">
         <v>100814</v>
       </c>
@@ -2965,7 +2964,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="49" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="2">
         <v>100781</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="50" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="2">
         <v>100503</v>
       </c>
@@ -2993,7 +2992,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="51" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="2">
         <v>100562</v>
       </c>
@@ -3007,7 +3006,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="52" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="2">
         <v>100536</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="53" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="2">
         <v>100764</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="54" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="2">
         <v>100789</v>
       </c>
@@ -3049,7 +3048,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="55" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="2">
         <v>100710</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="56" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="2">
         <v>100606</v>
       </c>
@@ -3077,7 +3076,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="57" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="2">
         <v>100715</v>
       </c>
@@ -3091,7 +3090,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="58" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="2">
         <v>100811</v>
       </c>
@@ -3105,7 +3104,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="59" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="2">
         <v>100652</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="60" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="2">
         <v>100819</v>
       </c>
@@ -3133,7 +3132,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="61" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="2">
         <v>100731</v>
       </c>
@@ -3147,7 +3146,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="62" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="2">
         <v>100505</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="63" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="2">
         <v>100788</v>
       </c>
@@ -3175,7 +3174,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="64" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="2">
         <v>100723</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="65" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="2">
         <v>100615</v>
       </c>
@@ -3203,7 +3202,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="66" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="2">
         <v>100525</v>
       </c>
@@ -3217,7 +3216,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="67" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="2">
         <v>100806</v>
       </c>
@@ -3231,7 +3230,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="68" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="2">
         <v>100823</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="69" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="2">
         <v>100501</v>
       </c>
@@ -3259,7 +3258,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="70" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="2">
         <v>100684</v>
       </c>
@@ -3273,7 +3272,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="71" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="2">
         <v>100713</v>
       </c>
@@ -3287,7 +3286,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="72" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="2">
         <v>100801</v>
       </c>
@@ -3301,7 +3300,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="73" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="2">
         <v>100672</v>
       </c>
@@ -3315,7 +3314,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="74" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="2">
         <v>100759</v>
       </c>
@@ -3329,7 +3328,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="2">
         <v>100722</v>
       </c>
@@ -3343,7 +3342,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="76" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="2">
         <v>100629</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="77" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="2">
         <v>100777</v>
       </c>
@@ -3371,7 +3370,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="78" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="2">
         <v>100707</v>
       </c>
@@ -3385,7 +3384,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="79" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="2">
         <v>100516</v>
       </c>
@@ -3399,7 +3398,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="80" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="2">
         <v>100600</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="81" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="2">
         <v>100552</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="82" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" s="2">
         <v>100797</v>
       </c>
@@ -3441,7 +3440,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="83" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" s="2">
         <v>100541</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="84" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="2">
         <v>100669</v>
       </c>
@@ -3469,7 +3468,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="85" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" s="2">
         <v>100508</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="86" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" s="2">
         <v>100614</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="87" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" s="2">
         <v>100825</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="88" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" s="2">
         <v>100631</v>
       </c>
@@ -3525,7 +3524,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="89" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" s="2">
         <v>100531</v>
       </c>
@@ -3539,7 +3538,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="90" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" s="2">
         <v>100726</v>
       </c>
@@ -3553,7 +3552,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="91" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" s="2">
         <v>100663</v>
       </c>
@@ -3567,7 +3566,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="92" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" s="2">
         <v>100698</v>
       </c>
@@ -3581,7 +3580,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="93" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" s="2">
         <v>100644</v>
       </c>
@@ -3595,7 +3594,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="94" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" s="2">
         <v>100563</v>
       </c>
@@ -3609,7 +3608,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="95" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" s="2">
         <v>100711</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="96" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" s="2">
         <v>100519</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="97" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" s="2">
         <v>100716</v>
       </c>
@@ -3651,7 +3650,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="98" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" s="2">
         <v>100522</v>
       </c>
@@ -3665,7 +3664,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="99" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" s="2">
         <v>100820</v>
       </c>
@@ -3679,7 +3678,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="100" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" s="2">
         <v>100706</v>
       </c>
@@ -3693,7 +3692,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="101" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" s="2">
         <v>100599</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="102" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" s="2">
         <v>100694</v>
       </c>
@@ -3721,7 +3720,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="103" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" s="2">
         <v>100721</v>
       </c>
@@ -3735,7 +3734,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="104" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" s="2">
         <v>100517</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="105" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" s="2">
         <v>100523</v>
       </c>
@@ -3763,7 +3762,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="106" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" s="2">
         <v>100545</v>
       </c>
@@ -3777,7 +3776,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="107" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" s="2">
         <v>100697</v>
       </c>
@@ -3791,7 +3790,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="108" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108" s="2">
         <v>100577</v>
       </c>
@@ -3805,7 +3804,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="109" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109" s="2">
         <v>100755</v>
       </c>
@@ -3819,7 +3818,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="110" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110" s="2">
         <v>100543</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="111" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111" s="2">
         <v>100803</v>
       </c>
@@ -3847,7 +3846,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="112" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112" s="2">
         <v>100583</v>
       </c>
@@ -3861,7 +3860,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="113" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113" s="2">
         <v>100679</v>
       </c>
@@ -3875,7 +3874,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="114" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114" s="2">
         <v>100727</v>
       </c>
@@ -3889,7 +3888,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="115" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115" s="2">
         <v>100572</v>
       </c>
@@ -3903,7 +3902,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="116" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116" s="2">
         <v>100818</v>
       </c>
@@ -3917,7 +3916,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="117" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117" s="2">
         <v>100660</v>
       </c>
@@ -3931,7 +3930,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="118" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118" s="2">
         <v>100532</v>
       </c>
@@ -3945,7 +3944,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="119" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119" s="2">
         <v>100690</v>
       </c>
@@ -3959,7 +3958,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="120" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120" s="2">
         <v>100779</v>
       </c>
@@ -3973,7 +3972,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="121" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121" s="2">
         <v>100763</v>
       </c>
@@ -3987,7 +3986,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="122" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122" s="2">
         <v>100735</v>
       </c>
@@ -4001,7 +4000,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="123" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123" s="2">
         <v>100720</v>
       </c>
@@ -4015,7 +4014,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="124" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124" s="2">
         <v>100546</v>
       </c>
@@ -4029,7 +4028,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="125" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125" s="2">
         <v>100785</v>
       </c>
@@ -4043,7 +4042,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="126" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126" s="2">
         <v>100746</v>
       </c>
@@ -4057,7 +4056,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="127" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127" s="2">
         <v>100725</v>
       </c>
@@ -4071,7 +4070,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="128" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4">
       <c r="A128" s="2">
         <v>100824</v>
       </c>
@@ -4085,7 +4084,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="129" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129" s="2">
         <v>100619</v>
       </c>
@@ -4099,7 +4098,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="130" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4">
       <c r="A130" s="2">
         <v>100692</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="131" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131" s="2">
         <v>100598</v>
       </c>
@@ -4127,7 +4126,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="132" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="A132" s="2">
         <v>100574</v>
       </c>
@@ -4141,7 +4140,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="133" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133" s="2">
         <v>100630</v>
       </c>
@@ -4155,7 +4154,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="134" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134" s="2">
         <v>100646</v>
       </c>
@@ -4169,7 +4168,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="135" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135" s="2">
         <v>100661</v>
       </c>
@@ -4183,7 +4182,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="136" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136" s="2">
         <v>100637</v>
       </c>
@@ -4197,7 +4196,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="137" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137" s="2">
         <v>100635</v>
       </c>
@@ -4211,7 +4210,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="138" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138" s="2">
         <v>100654</v>
       </c>
@@ -4225,7 +4224,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="139" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139" s="2">
         <v>100767</v>
       </c>
@@ -4239,7 +4238,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="140" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140" s="2">
         <v>100790</v>
       </c>
@@ -4253,7 +4252,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="141" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141" s="2">
         <v>100520</v>
       </c>
@@ -4267,7 +4266,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="142" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142" s="2">
         <v>100709</v>
       </c>
@@ -4281,7 +4280,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="143" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143" s="2">
         <v>100576</v>
       </c>
@@ -4295,7 +4294,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="144" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144" s="2">
         <v>100512</v>
       </c>
@@ -4309,7 +4308,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="145" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145" s="2">
         <v>100728</v>
       </c>
@@ -4323,7 +4322,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="146" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="A146" s="2">
         <v>100575</v>
       </c>
@@ -4337,7 +4336,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="147" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4">
       <c r="A147" s="2">
         <v>100665</v>
       </c>
@@ -4351,7 +4350,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="148" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4">
       <c r="A148" s="2">
         <v>100535</v>
       </c>
@@ -4365,7 +4364,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="149" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4">
       <c r="A149" s="2">
         <v>100799</v>
       </c>
@@ -4379,7 +4378,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="150" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="A150" s="2">
         <v>100681</v>
       </c>
@@ -4393,7 +4392,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="151" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4">
       <c r="A151" s="2">
         <v>100667</v>
       </c>
@@ -4407,7 +4406,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="152" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="A152" s="2">
         <v>100580</v>
       </c>
@@ -4421,7 +4420,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="153" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4">
       <c r="A153" s="2">
         <v>100628</v>
       </c>
@@ -4435,7 +4434,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="154" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="A154" s="2">
         <v>100648</v>
       </c>
@@ -4449,7 +4448,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="155" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4">
       <c r="A155" s="2">
         <v>100702</v>
       </c>
@@ -4463,7 +4462,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="156" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4">
       <c r="A156" s="2">
         <v>100550</v>
       </c>
@@ -4477,7 +4476,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="157" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4">
       <c r="A157" s="2">
         <v>100538</v>
       </c>
@@ -4491,7 +4490,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="158" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4">
       <c r="A158" s="2">
         <v>100559</v>
       </c>
@@ -4505,7 +4504,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="159" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4">
       <c r="A159" s="2">
         <v>100687</v>
       </c>
@@ -4519,7 +4518,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="160" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4">
       <c r="A160" s="2">
         <v>100700</v>
       </c>
@@ -4533,7 +4532,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="161" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4">
       <c r="A161" s="2">
         <v>100768</v>
       </c>
@@ -4547,7 +4546,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="162" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4">
       <c r="A162" s="2">
         <v>100589</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="163" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4">
       <c r="A163" s="2">
         <v>100794</v>
       </c>
@@ -4575,7 +4574,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="164" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4">
       <c r="A164" s="2">
         <v>100537</v>
       </c>
@@ -4589,7 +4588,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="165" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4">
       <c r="A165" s="2">
         <v>100771</v>
       </c>
@@ -4603,7 +4602,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="166" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4">
       <c r="A166" s="2">
         <v>100666</v>
       </c>
@@ -4617,7 +4616,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="167" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4">
       <c r="A167" s="2">
         <v>100584</v>
       </c>
@@ -4631,7 +4630,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="168" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4">
       <c r="A168" s="2">
         <v>100747</v>
       </c>
@@ -4645,7 +4644,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="169" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4">
       <c r="A169" s="2">
         <v>100816</v>
       </c>
@@ -4659,7 +4658,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="170" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4">
       <c r="A170" s="2">
         <v>100765</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="171" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4">
       <c r="A171" s="2">
         <v>100632</v>
       </c>
@@ -4687,7 +4686,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="172" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4">
       <c r="A172" s="2">
         <v>100555</v>
       </c>
@@ -4701,7 +4700,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="173" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4">
       <c r="A173" s="2">
         <v>100510</v>
       </c>
@@ -4715,7 +4714,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="174" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4">
       <c r="A174" s="2">
         <v>100539</v>
       </c>
@@ -4729,7 +4728,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="175" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4">
       <c r="A175" s="2">
         <v>100618</v>
       </c>
@@ -4743,7 +4742,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="176" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4">
       <c r="A176" s="2">
         <v>100533</v>
       </c>
@@ -4757,7 +4756,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="177" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4">
       <c r="A177" s="2">
         <v>100783</v>
       </c>
@@ -4771,7 +4770,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="178" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4">
       <c r="A178" s="2">
         <v>100578</v>
       </c>
@@ -4785,7 +4784,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="179" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4">
       <c r="A179" s="2">
         <v>100633</v>
       </c>
@@ -4799,7 +4798,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="180" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="A180" s="2">
         <v>100729</v>
       </c>
@@ -4813,7 +4812,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="181" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4">
       <c r="A181" s="2">
         <v>100595</v>
       </c>
@@ -4827,7 +4826,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="182" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4">
       <c r="A182" s="2">
         <v>100554</v>
       </c>
@@ -4841,7 +4840,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="183" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4">
       <c r="A183" s="2">
         <v>100676</v>
       </c>
@@ -4855,7 +4854,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="184" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="A184" s="2">
         <v>100548</v>
       </c>
@@ -4869,7 +4868,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="185" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="A185" s="2">
         <v>100741</v>
       </c>
@@ -4883,7 +4882,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="186" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4">
       <c r="A186" s="2">
         <v>100742</v>
       </c>
@@ -4897,7 +4896,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="187" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4">
       <c r="A187" s="2">
         <v>100625</v>
       </c>
@@ -4911,7 +4910,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="188" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4">
       <c r="A188" s="2">
         <v>100769</v>
       </c>
@@ -4925,7 +4924,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="189" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4">
       <c r="A189" s="2">
         <v>100610</v>
       </c>
@@ -4939,7 +4938,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="190" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4">
       <c r="A190" s="2">
         <v>100821</v>
       </c>
@@ -4953,7 +4952,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="191" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4">
       <c r="A191" s="2">
         <v>100570</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="192" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4">
       <c r="A192" s="2">
         <v>100624</v>
       </c>
@@ -4981,7 +4980,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="193" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4">
       <c r="A193" s="2">
         <v>100601</v>
       </c>
@@ -4995,7 +4994,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="194" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4">
       <c r="A194" s="2">
         <v>100680</v>
       </c>
@@ -5009,7 +5008,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="195" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4">
       <c r="A195" s="2">
         <v>100608</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="196" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4">
       <c r="A196" s="2">
         <v>100717</v>
       </c>
@@ -5037,7 +5036,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="197" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4">
       <c r="A197" s="2">
         <v>100674</v>
       </c>
@@ -5051,7 +5050,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="198" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4">
       <c r="A198" s="2">
         <v>100581</v>
       </c>
@@ -5065,7 +5064,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="199" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4">
       <c r="A199" s="2">
         <v>100511</v>
       </c>
@@ -5079,7 +5078,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="200" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4">
       <c r="A200" s="2">
         <v>100751</v>
       </c>
@@ -5093,7 +5092,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="201" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4">
       <c r="A201" s="2">
         <v>100607</v>
       </c>
@@ -5107,7 +5106,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="202" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4">
       <c r="A202" s="2">
         <v>100639</v>
       </c>
@@ -5121,7 +5120,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="203" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4">
       <c r="A203" s="2">
         <v>100528</v>
       </c>
@@ -5135,7 +5134,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="204" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4">
       <c r="A204" s="2">
         <v>100662</v>
       </c>
@@ -5149,7 +5148,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="205" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4">
       <c r="A205" s="2">
         <v>100641</v>
       </c>
@@ -5163,7 +5162,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="206" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4">
       <c r="A206" s="2">
         <v>100812</v>
       </c>
@@ -5177,7 +5176,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="207" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4">
       <c r="A207" s="2">
         <v>100617</v>
       </c>
@@ -5191,7 +5190,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="208" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4">
       <c r="A208" s="2">
         <v>100786</v>
       </c>
@@ -5205,7 +5204,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="209" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4">
       <c r="A209" s="2">
         <v>100813</v>
       </c>
@@ -5219,7 +5218,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="210" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4">
       <c r="A210" s="2">
         <v>100636</v>
       </c>
@@ -5233,7 +5232,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="211" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4">
       <c r="A211" s="2">
         <v>100659</v>
       </c>
@@ -5247,7 +5246,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="212" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4">
       <c r="A212" s="2">
         <v>100762</v>
       </c>
@@ -5261,7 +5260,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="213" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4">
       <c r="A213" s="2">
         <v>100718</v>
       </c>
@@ -5275,7 +5274,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="214" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4">
       <c r="A214" s="2">
         <v>100604</v>
       </c>
@@ -5289,7 +5288,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="215" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4">
       <c r="A215" s="2">
         <v>100567</v>
       </c>
@@ -5303,7 +5302,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="216" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4">
       <c r="A216" s="2">
         <v>100557</v>
       </c>
@@ -5317,7 +5316,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="217" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4">
       <c r="A217" s="2">
         <v>100739</v>
       </c>
@@ -5331,7 +5330,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="218" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4">
       <c r="A218" s="2">
         <v>100685</v>
       </c>
@@ -5345,7 +5344,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="219" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4">
       <c r="A219" s="2">
         <v>100738</v>
       </c>
@@ -5359,7 +5358,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="220" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4">
       <c r="A220" s="2">
         <v>100634</v>
       </c>
@@ -5373,7 +5372,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="221" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4">
       <c r="A221" s="2">
         <v>100657</v>
       </c>
@@ -5387,7 +5386,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="222" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4">
       <c r="A222" s="2">
         <v>100760</v>
       </c>
@@ -5401,7 +5400,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="223" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4">
       <c r="A223" s="2">
         <v>100677</v>
       </c>
@@ -5415,7 +5414,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="224" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4">
       <c r="A224" s="2">
         <v>100775</v>
       </c>
@@ -5429,7 +5428,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="225" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4">
       <c r="A225" s="2">
         <v>100807</v>
       </c>
@@ -5443,7 +5442,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="226" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4">
       <c r="A226" s="2">
         <v>100611</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="227" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4">
       <c r="A227" s="2">
         <v>100757</v>
       </c>
@@ -5471,7 +5470,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="228" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4">
       <c r="A228" s="2">
         <v>100774</v>
       </c>
@@ -5485,7 +5484,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="229" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4">
       <c r="A229" s="2">
         <v>100693</v>
       </c>
@@ -5499,7 +5498,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="230" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4">
       <c r="A230" s="2">
         <v>100588</v>
       </c>
@@ -5513,7 +5512,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="231" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4">
       <c r="A231" s="2">
         <v>100602</v>
       </c>
@@ -5527,7 +5526,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="232" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4">
       <c r="A232" s="2">
         <v>100609</v>
       </c>
@@ -5541,7 +5540,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="233" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4">
       <c r="A233" s="2">
         <v>100695</v>
       </c>
@@ -5555,7 +5554,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="234" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4">
       <c r="A234" s="2">
         <v>100560</v>
       </c>
@@ -5569,7 +5568,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="235" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4">
       <c r="A235" s="2">
         <v>100724</v>
       </c>
@@ -5583,7 +5582,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="236" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4">
       <c r="A236" s="2">
         <v>100691</v>
       </c>
@@ -5597,7 +5596,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="237" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4">
       <c r="A237" s="2">
         <v>100627</v>
       </c>
@@ -5611,7 +5610,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="238" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4">
       <c r="A238" s="2">
         <v>100521</v>
       </c>
@@ -5625,7 +5624,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="239" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4">
       <c r="A239" s="2">
         <v>100714</v>
       </c>
@@ -5639,7 +5638,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="240" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4">
       <c r="A240" s="2">
         <v>100810</v>
       </c>
@@ -5653,7 +5652,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="241" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4">
       <c r="A241" s="2">
         <v>100737</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="242" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4">
       <c r="A242" s="2">
         <v>100730</v>
       </c>
@@ -5681,7 +5680,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="243" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4">
       <c r="A243" s="2">
         <v>100643</v>
       </c>
@@ -5695,7 +5694,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="244" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4">
       <c r="A244" s="2">
         <v>100750</v>
       </c>
@@ -5709,7 +5708,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="245" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4">
       <c r="A245" s="2">
         <v>100569</v>
       </c>
@@ -5723,7 +5722,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="246" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4">
       <c r="A246" s="2">
         <v>100540</v>
       </c>
@@ -5737,7 +5736,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="247" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4">
       <c r="A247" s="2">
         <v>100791</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="248" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4">
       <c r="A248" s="2">
         <v>100518</v>
       </c>
@@ -5765,7 +5764,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="249" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4">
       <c r="A249" s="2">
         <v>100587</v>
       </c>
@@ -5779,7 +5778,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="250" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4">
       <c r="A250" s="2">
         <v>100805</v>
       </c>
@@ -5793,7 +5792,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="251" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4">
       <c r="A251" s="2">
         <v>100701</v>
       </c>
@@ -5807,7 +5806,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="252" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4">
       <c r="A252" s="2">
         <v>100686</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="253" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4">
       <c r="A253" s="2">
         <v>100620</v>
       </c>
@@ -5835,7 +5834,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="254" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4">
       <c r="A254" s="2">
         <v>100719</v>
       </c>
@@ -5849,7 +5848,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="255" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4">
       <c r="A255" s="2">
         <v>100678</v>
       </c>
@@ -5863,7 +5862,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="256" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4">
       <c r="A256" s="2">
         <v>100745</v>
       </c>
@@ -5877,7 +5876,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="257" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4">
       <c r="A257" s="2">
         <v>100778</v>
       </c>
@@ -5891,7 +5890,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="258" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4">
       <c r="A258" s="2">
         <v>100568</v>
       </c>
@@ -5905,7 +5904,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="259" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4">
       <c r="A259" s="2">
         <v>100613</v>
       </c>
@@ -5919,7 +5918,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="260" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4">
       <c r="A260" s="2">
         <v>100784</v>
       </c>
@@ -5933,7 +5932,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="261" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4">
       <c r="A261" s="2">
         <v>100817</v>
       </c>
@@ -5947,7 +5946,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="262" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4">
       <c r="A262" s="2">
         <v>100651</v>
       </c>
@@ -5961,7 +5960,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="263" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4">
       <c r="A263" s="2">
         <v>100547</v>
       </c>
@@ -5975,7 +5974,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="264" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4">
       <c r="A264" s="2">
         <v>100740</v>
       </c>
@@ -5989,7 +5988,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="265" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4">
       <c r="A265" s="2">
         <v>100640</v>
       </c>
@@ -6003,7 +6002,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="266" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4">
       <c r="A266" s="2">
         <v>100749</v>
       </c>
@@ -6017,7 +6016,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="267" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4">
       <c r="A267" s="2">
         <v>100773</v>
       </c>
@@ -6031,7 +6030,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="268" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4">
       <c r="A268" s="2">
         <v>100802</v>
       </c>
@@ -6045,7 +6044,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="269" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4">
       <c r="A269" s="2">
         <v>100815</v>
       </c>
@@ -6059,7 +6058,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="270" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4">
       <c r="A270" s="2">
         <v>100705</v>
       </c>
@@ -6073,7 +6072,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="271" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4">
       <c r="A271" s="2">
         <v>100668</v>
       </c>
@@ -6087,7 +6086,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="272" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4">
       <c r="A272" s="2">
         <v>100683</v>
       </c>
@@ -6101,7 +6100,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="273" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4">
       <c r="A273" s="2">
         <v>100712</v>
       </c>
@@ -6115,7 +6114,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="274" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4">
       <c r="A274" s="2">
         <v>100638</v>
       </c>
@@ -6129,7 +6128,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="275" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4">
       <c r="A275" s="2">
         <v>100732</v>
       </c>
@@ -6143,7 +6142,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="276" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4">
       <c r="A276" s="2">
         <v>100506</v>
       </c>
@@ -6157,7 +6156,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="277" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4">
       <c r="A277" s="2">
         <v>100594</v>
       </c>
@@ -6171,7 +6170,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="278" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4">
       <c r="A278" s="2">
         <v>100558</v>
       </c>
@@ -6185,7 +6184,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="279" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4">
       <c r="A279" s="2">
         <v>100822</v>
       </c>
@@ -6199,7 +6198,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="280" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4">
       <c r="A280" s="2">
         <v>100761</v>
       </c>
@@ -6213,7 +6212,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="281" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4">
       <c r="A281" s="2">
         <v>100658</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="282" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4">
       <c r="A282" s="2">
         <v>100673</v>
       </c>
@@ -6241,7 +6240,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="283" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4">
       <c r="A283" s="2">
         <v>100744</v>
       </c>
@@ -6255,7 +6254,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="284" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4">
       <c r="A284" s="2">
         <v>100752</v>
       </c>
@@ -6269,7 +6268,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="285" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4">
       <c r="A285" s="2">
         <v>100603</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="286" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4">
       <c r="A286" s="2">
         <v>100758</v>
       </c>
@@ -6297,7 +6296,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="287" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4">
       <c r="A287" s="2">
         <v>100626</v>
       </c>
@@ -6311,7 +6310,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="288" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4">
       <c r="A288" s="2">
         <v>100748</v>
       </c>
@@ -6325,7 +6324,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="289" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4">
       <c r="A289" s="2">
         <v>100585</v>
       </c>
@@ -6339,7 +6338,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="290" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4">
       <c r="A290" s="2">
         <v>100612</v>
       </c>
@@ -6353,7 +6352,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="291" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4">
       <c r="A291" s="2">
         <v>100743</v>
       </c>
@@ -6367,7 +6366,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="292" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4">
       <c r="A292" s="2">
         <v>100591</v>
       </c>
@@ -6381,7 +6380,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="293" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4">
       <c r="A293" s="2">
         <v>100656</v>
       </c>
@@ -6395,7 +6394,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="294" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4">
       <c r="A294" s="2">
         <v>100804</v>
       </c>
@@ -6409,7 +6408,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="295" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4">
       <c r="A295" s="2">
         <v>100782</v>
       </c>
@@ -6423,7 +6422,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="296" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4">
       <c r="A296" s="2">
         <v>100549</v>
       </c>
@@ -6437,7 +6436,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="297" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4">
       <c r="A297" s="2">
         <v>100708</v>
       </c>
@@ -6451,7 +6450,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="298" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4">
       <c r="A298" s="2">
         <v>100590</v>
       </c>
@@ -6465,7 +6464,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="299" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4">
       <c r="A299" s="2">
         <v>100650</v>
       </c>
@@ -6479,7 +6478,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="300" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4">
       <c r="A300" s="2">
         <v>100800</v>
       </c>
@@ -6493,7 +6492,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="301" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4">
       <c r="A301" s="2">
         <v>100772</v>
       </c>
@@ -6507,7 +6506,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="302" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4">
       <c r="A302" s="2">
         <v>100556</v>
       </c>
@@ -6521,7 +6520,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="303" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4">
       <c r="A303" s="2">
         <v>100682</v>
       </c>
@@ -6535,7 +6534,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="304" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4">
       <c r="A304" s="2">
         <v>100571</v>
       </c>
@@ -6549,7 +6548,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="305" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4">
       <c r="A305" s="2">
         <v>100527</v>
       </c>
@@ -6563,7 +6562,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="306" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4">
       <c r="A306" s="2">
         <v>100566</v>
       </c>
@@ -6577,7 +6576,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="307" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4">
       <c r="A307" s="2">
         <v>100787</v>
       </c>
@@ -6591,7 +6590,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="308" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4">
       <c r="A308" s="2">
         <v>100649</v>
       </c>
@@ -6605,7 +6604,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="309" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4">
       <c r="A309" s="2">
         <v>100507</v>
       </c>
@@ -6619,7 +6618,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="310" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4">
       <c r="A310" s="2">
         <v>100605</v>
       </c>
@@ -6633,7 +6632,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="311" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4">
       <c r="A311" s="2">
         <v>100579</v>
       </c>
@@ -6647,7 +6646,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="312" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4">
       <c r="A312" s="2">
         <v>100582</v>
       </c>
@@ -6661,7 +6660,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="313" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4">
       <c r="A313" s="2">
         <v>100514</v>
       </c>
@@ -6675,7 +6674,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="314" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4">
       <c r="A314" s="2">
         <v>100671</v>
       </c>
@@ -6689,7 +6688,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="315" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4">
       <c r="A315" s="2">
         <v>100754</v>
       </c>
@@ -6703,7 +6702,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="316" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4">
       <c r="A316" s="2">
         <v>100553</v>
       </c>
@@ -6717,7 +6716,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="317" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4">
       <c r="A317" s="2">
         <v>100515</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="318" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4">
       <c r="A318" s="2">
         <v>100753</v>
       </c>
@@ -6745,7 +6744,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="319" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4">
       <c r="A319" s="2">
         <v>100502</v>
       </c>
@@ -6759,7 +6758,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="320" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4">
       <c r="A320" s="2">
         <v>100734</v>
       </c>
@@ -6773,7 +6772,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="321" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4">
       <c r="A321" s="2">
         <v>100551</v>
       </c>
@@ -6787,7 +6786,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="322" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4">
       <c r="A322" s="2">
         <v>100529</v>
       </c>
@@ -6801,7 +6800,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="323" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4">
       <c r="A323" s="2">
         <v>100675</v>
       </c>
@@ -6815,7 +6814,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="324" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4">
       <c r="A324" s="2">
         <v>100592</v>
       </c>
@@ -6829,7 +6828,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="325" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4">
       <c r="A325" s="2">
         <v>100647</v>
       </c>
@@ -6843,7 +6842,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="326" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4">
       <c r="A326" s="2">
         <v>100565</v>
       </c>
@@ -6860,2262 +6859,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D160"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
-    <col min="3" max="3" width="20.7109375" customWidth="true"/>
-    <col min="4" max="4" width="8.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>100670</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>100534</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>100798</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>100733</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>100596</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>100544</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>100586</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>100621</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>100736</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>100509</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>100689</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>100766</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>100780</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>100530</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>100542</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>100776</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>100808</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>100756</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>100526</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>100664</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>100504</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>100703</v>
-      </c>
-      <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>100561</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>100524</v>
-      </c>
-      <c r="B25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>100616</v>
-      </c>
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>100814</v>
-      </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>100781</v>
-      </c>
-      <c r="B28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>100562</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>100536</v>
-      </c>
-      <c r="B30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>100710</v>
-      </c>
-      <c r="B31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>100606</v>
-      </c>
-      <c r="B32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>100811</v>
-      </c>
-      <c r="B33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>100788</v>
-      </c>
-      <c r="B34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>100615</v>
-      </c>
-      <c r="B35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>100806</v>
-      </c>
-      <c r="B36" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>100823</v>
-      </c>
-      <c r="B37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>100713</v>
-      </c>
-      <c r="B38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>100801</v>
-      </c>
-      <c r="B39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D39" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>100672</v>
-      </c>
-      <c r="B40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>100707</v>
-      </c>
-      <c r="B41" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>100516</v>
-      </c>
-      <c r="B42" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>100600</v>
-      </c>
-      <c r="B43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>100797</v>
-      </c>
-      <c r="B44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>100541</v>
-      </c>
-      <c r="B45" t="s">
-        <v>159</v>
-      </c>
-      <c r="C45" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>100669</v>
-      </c>
-      <c r="B46" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" t="s">
-        <v>162</v>
-      </c>
-      <c r="D46" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>100531</v>
-      </c>
-      <c r="B47" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" t="s">
-        <v>172</v>
-      </c>
-      <c r="D47" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>100726</v>
-      </c>
-      <c r="B48" t="s">
-        <v>173</v>
-      </c>
-      <c r="C48" t="s">
-        <v>174</v>
-      </c>
-      <c r="D48" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>100644</v>
-      </c>
-      <c r="B49" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" t="s">
-        <v>180</v>
-      </c>
-      <c r="D49" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>100563</v>
-      </c>
-      <c r="B50" t="s">
-        <v>181</v>
-      </c>
-      <c r="C50" t="s">
-        <v>182</v>
-      </c>
-      <c r="D50" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>100711</v>
-      </c>
-      <c r="B51" t="s">
-        <v>183</v>
-      </c>
-      <c r="C51" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>100716</v>
-      </c>
-      <c r="B52" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" t="s">
-        <v>187</v>
-      </c>
-      <c r="D52" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>100599</v>
-      </c>
-      <c r="B53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" t="s">
-        <v>195</v>
-      </c>
-      <c r="D53" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>100721</v>
-      </c>
-      <c r="B54" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D54" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>100517</v>
-      </c>
-      <c r="B55" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" t="s">
-        <v>201</v>
-      </c>
-      <c r="D55" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>100577</v>
-      </c>
-      <c r="B56" t="s">
-        <v>208</v>
-      </c>
-      <c r="C56" t="s">
-        <v>209</v>
-      </c>
-      <c r="D56" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>100679</v>
-      </c>
-      <c r="B57" t="s">
-        <v>218</v>
-      </c>
-      <c r="C57" t="s">
-        <v>219</v>
-      </c>
-      <c r="D57" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>100818</v>
-      </c>
-      <c r="B58" t="s">
-        <v>224</v>
-      </c>
-      <c r="C58" t="s">
-        <v>225</v>
-      </c>
-      <c r="D58" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>100532</v>
-      </c>
-      <c r="B59" t="s">
-        <v>228</v>
-      </c>
-      <c r="C59" t="s">
-        <v>229</v>
-      </c>
-      <c r="D59" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>100779</v>
-      </c>
-      <c r="B60" t="s">
-        <v>232</v>
-      </c>
-      <c r="C60" t="s">
-        <v>233</v>
-      </c>
-      <c r="D60" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
-        <v>100735</v>
-      </c>
-      <c r="B61" t="s">
-        <v>236</v>
-      </c>
-      <c r="C61" t="s">
-        <v>237</v>
-      </c>
-      <c r="D61" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>100546</v>
-      </c>
-      <c r="B62" t="s">
-        <v>240</v>
-      </c>
-      <c r="C62" t="s">
-        <v>205</v>
-      </c>
-      <c r="D62" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63">
-        <v>100725</v>
-      </c>
-      <c r="B63" t="s">
-        <v>245</v>
-      </c>
-      <c r="C63" t="s">
-        <v>246</v>
-      </c>
-      <c r="D63" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64">
-        <v>100598</v>
-      </c>
-      <c r="B64" t="s">
-        <v>253</v>
-      </c>
-      <c r="C64" t="s">
-        <v>254</v>
-      </c>
-      <c r="D64" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65">
-        <v>100574</v>
-      </c>
-      <c r="B65" t="s">
-        <v>255</v>
-      </c>
-      <c r="C65" t="s">
-        <v>256</v>
-      </c>
-      <c r="D65" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66">
-        <v>100646</v>
-      </c>
-      <c r="B66" t="s">
-        <v>259</v>
-      </c>
-      <c r="C66" t="s">
-        <v>260</v>
-      </c>
-      <c r="D66" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67">
-        <v>100661</v>
-      </c>
-      <c r="B67" t="s">
-        <v>261</v>
-      </c>
-      <c r="C67" t="s">
-        <v>262</v>
-      </c>
-      <c r="D67" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68">
-        <v>100635</v>
-      </c>
-      <c r="B68" t="s">
-        <v>265</v>
-      </c>
-      <c r="C68" t="s">
-        <v>266</v>
-      </c>
-      <c r="D68" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69">
-        <v>100790</v>
-      </c>
-      <c r="B69" t="s">
-        <v>271</v>
-      </c>
-      <c r="C69" t="s">
-        <v>272</v>
-      </c>
-      <c r="D69" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70">
-        <v>100520</v>
-      </c>
-      <c r="B70" t="s">
-        <v>273</v>
-      </c>
-      <c r="C70" t="s">
-        <v>274</v>
-      </c>
-      <c r="D70" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71">
-        <v>100709</v>
-      </c>
-      <c r="B71" t="s">
-        <v>275</v>
-      </c>
-      <c r="C71" t="s">
-        <v>276</v>
-      </c>
-      <c r="D71" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72">
-        <v>100512</v>
-      </c>
-      <c r="B72" t="s">
-        <v>278</v>
-      </c>
-      <c r="C72" t="s">
-        <v>279</v>
-      </c>
-      <c r="D72" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73">
-        <v>100728</v>
-      </c>
-      <c r="B73" t="s">
-        <v>280</v>
-      </c>
-      <c r="C73" t="s">
-        <v>281</v>
-      </c>
-      <c r="D73" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74">
-        <v>100665</v>
-      </c>
-      <c r="B74" t="s">
-        <v>284</v>
-      </c>
-      <c r="C74" t="s">
-        <v>285</v>
-      </c>
-      <c r="D74" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75">
-        <v>100667</v>
-      </c>
-      <c r="B75" t="s">
-        <v>292</v>
-      </c>
-      <c r="C75" t="s">
-        <v>293</v>
-      </c>
-      <c r="D75" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76">
-        <v>100628</v>
-      </c>
-      <c r="B76" t="s">
-        <v>296</v>
-      </c>
-      <c r="C76" t="s">
-        <v>297</v>
-      </c>
-      <c r="D76" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77">
-        <v>100648</v>
-      </c>
-      <c r="B77" t="s">
-        <v>298</v>
-      </c>
-      <c r="C77" t="s">
-        <v>299</v>
-      </c>
-      <c r="D77" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78">
-        <v>100702</v>
-      </c>
-      <c r="B78" t="s">
-        <v>300</v>
-      </c>
-      <c r="C78" t="s">
-        <v>301</v>
-      </c>
-      <c r="D78" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79">
-        <v>100550</v>
-      </c>
-      <c r="B79" t="s">
-        <v>302</v>
-      </c>
-      <c r="C79" t="s">
-        <v>303</v>
-      </c>
-      <c r="D79" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80">
-        <v>100559</v>
-      </c>
-      <c r="B80" t="s">
-        <v>306</v>
-      </c>
-      <c r="C80" t="s">
-        <v>307</v>
-      </c>
-      <c r="D80" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81">
-        <v>100687</v>
-      </c>
-      <c r="B81" t="s">
-        <v>308</v>
-      </c>
-      <c r="C81" t="s">
-        <v>309</v>
-      </c>
-      <c r="D81" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82">
-        <v>100537</v>
-      </c>
-      <c r="B82" t="s">
-        <v>317</v>
-      </c>
-      <c r="C82" t="s">
-        <v>318</v>
-      </c>
-      <c r="D82" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83">
-        <v>100666</v>
-      </c>
-      <c r="B83" t="s">
-        <v>321</v>
-      </c>
-      <c r="C83" t="s">
-        <v>322</v>
-      </c>
-      <c r="D83" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84">
-        <v>100584</v>
-      </c>
-      <c r="B84" t="s">
-        <v>323</v>
-      </c>
-      <c r="C84" t="s">
-        <v>324</v>
-      </c>
-      <c r="D84" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85">
-        <v>100765</v>
-      </c>
-      <c r="B85" t="s">
-        <v>329</v>
-      </c>
-      <c r="C85" t="s">
-        <v>330</v>
-      </c>
-      <c r="D85" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86">
-        <v>100632</v>
-      </c>
-      <c r="B86" t="s">
-        <v>331</v>
-      </c>
-      <c r="C86" t="s">
-        <v>332</v>
-      </c>
-      <c r="D86" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87">
-        <v>100618</v>
-      </c>
-      <c r="B87" t="s">
-        <v>339</v>
-      </c>
-      <c r="C87" t="s">
-        <v>340</v>
-      </c>
-      <c r="D87" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88">
-        <v>100533</v>
-      </c>
-      <c r="B88" t="s">
-        <v>341</v>
-      </c>
-      <c r="C88" t="s">
-        <v>342</v>
-      </c>
-      <c r="D88" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89">
-        <v>100578</v>
-      </c>
-      <c r="B89" t="s">
-        <v>345</v>
-      </c>
-      <c r="C89" t="s">
-        <v>346</v>
-      </c>
-      <c r="D89" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90">
-        <v>100633</v>
-      </c>
-      <c r="B90" t="s">
-        <v>347</v>
-      </c>
-      <c r="C90" t="s">
-        <v>348</v>
-      </c>
-      <c r="D90" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91">
-        <v>100729</v>
-      </c>
-      <c r="B91" t="s">
-        <v>349</v>
-      </c>
-      <c r="C91" t="s">
-        <v>350</v>
-      </c>
-      <c r="D91" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92">
-        <v>100595</v>
-      </c>
-      <c r="B92" t="s">
-        <v>351</v>
-      </c>
-      <c r="C92" t="s">
-        <v>352</v>
-      </c>
-      <c r="D92" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93">
-        <v>100676</v>
-      </c>
-      <c r="B93" t="s">
-        <v>355</v>
-      </c>
-      <c r="C93" t="s">
-        <v>356</v>
-      </c>
-      <c r="D93" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94">
-        <v>100742</v>
-      </c>
-      <c r="B94" t="s">
-        <v>361</v>
-      </c>
-      <c r="C94" t="s">
-        <v>362</v>
-      </c>
-      <c r="D94" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95">
-        <v>100625</v>
-      </c>
-      <c r="B95" t="s">
-        <v>363</v>
-      </c>
-      <c r="C95" t="s">
-        <v>364</v>
-      </c>
-      <c r="D95" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96">
-        <v>100821</v>
-      </c>
-      <c r="B96" t="s">
-        <v>368</v>
-      </c>
-      <c r="C96" t="s">
-        <v>369</v>
-      </c>
-      <c r="D96" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97">
-        <v>100624</v>
-      </c>
-      <c r="B97" t="s">
-        <v>372</v>
-      </c>
-      <c r="C97" t="s">
-        <v>373</v>
-      </c>
-      <c r="D97" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98">
-        <v>100680</v>
-      </c>
-      <c r="B98" t="s">
-        <v>376</v>
-      </c>
-      <c r="C98" t="s">
-        <v>377</v>
-      </c>
-      <c r="D98" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99">
-        <v>100608</v>
-      </c>
-      <c r="B99" t="s">
-        <v>378</v>
-      </c>
-      <c r="C99" t="s">
-        <v>379</v>
-      </c>
-      <c r="D99" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100">
-        <v>100528</v>
-      </c>
-      <c r="B100" t="s">
-        <v>394</v>
-      </c>
-      <c r="C100" t="s">
-        <v>395</v>
-      </c>
-      <c r="D100" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101">
-        <v>100786</v>
-      </c>
-      <c r="B101" t="s">
-        <v>404</v>
-      </c>
-      <c r="C101" t="s">
-        <v>405</v>
-      </c>
-      <c r="D101" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102">
-        <v>100718</v>
-      </c>
-      <c r="B102" t="s">
-        <v>414</v>
-      </c>
-      <c r="C102" t="s">
-        <v>415</v>
-      </c>
-      <c r="D102" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103">
-        <v>100604</v>
-      </c>
-      <c r="B103" t="s">
-        <v>416</v>
-      </c>
-      <c r="C103" t="s">
-        <v>417</v>
-      </c>
-      <c r="D103" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104">
-        <v>100557</v>
-      </c>
-      <c r="B104" t="s">
-        <v>420</v>
-      </c>
-      <c r="C104" t="s">
-        <v>421</v>
-      </c>
-      <c r="D104" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105">
-        <v>100685</v>
-      </c>
-      <c r="B105" t="s">
-        <v>424</v>
-      </c>
-      <c r="C105" t="s">
-        <v>425</v>
-      </c>
-      <c r="D105" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106">
-        <v>100738</v>
-      </c>
-      <c r="B106" t="s">
-        <v>426</v>
-      </c>
-      <c r="C106" t="s">
-        <v>427</v>
-      </c>
-      <c r="D106" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107">
-        <v>100775</v>
-      </c>
-      <c r="B107" t="s">
-        <v>435</v>
-      </c>
-      <c r="C107" t="s">
-        <v>436</v>
-      </c>
-      <c r="D107" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108">
-        <v>100807</v>
-      </c>
-      <c r="B108" t="s">
-        <v>437</v>
-      </c>
-      <c r="C108" t="s">
-        <v>438</v>
-      </c>
-      <c r="D108" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109">
-        <v>100757</v>
-      </c>
-      <c r="B109" t="s">
-        <v>439</v>
-      </c>
-      <c r="C109" t="s">
-        <v>441</v>
-      </c>
-      <c r="D109" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110">
-        <v>100774</v>
-      </c>
-      <c r="B110" t="s">
-        <v>442</v>
-      </c>
-      <c r="C110" t="s">
-        <v>443</v>
-      </c>
-      <c r="D110" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111">
-        <v>100693</v>
-      </c>
-      <c r="B111" t="s">
-        <v>444</v>
-      </c>
-      <c r="C111" t="s">
-        <v>445</v>
-      </c>
-      <c r="D111" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112">
-        <v>100602</v>
-      </c>
-      <c r="B112" t="s">
-        <v>448</v>
-      </c>
-      <c r="C112" t="s">
-        <v>449</v>
-      </c>
-      <c r="D112" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113">
-        <v>100609</v>
-      </c>
-      <c r="B113" t="s">
-        <v>450</v>
-      </c>
-      <c r="C113" t="s">
-        <v>451</v>
-      </c>
-      <c r="D113" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114">
-        <v>100627</v>
-      </c>
-      <c r="B114" t="s">
-        <v>460</v>
-      </c>
-      <c r="C114" t="s">
-        <v>461</v>
-      </c>
-      <c r="D114" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115">
-        <v>100714</v>
-      </c>
-      <c r="B115" t="s">
-        <v>464</v>
-      </c>
-      <c r="C115" t="s">
-        <v>465</v>
-      </c>
-      <c r="D115" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116">
-        <v>100730</v>
-      </c>
-      <c r="B116" t="s">
-        <v>469</v>
-      </c>
-      <c r="C116" t="s">
-        <v>470</v>
-      </c>
-      <c r="D116" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117">
-        <v>100643</v>
-      </c>
-      <c r="B117" t="s">
-        <v>471</v>
-      </c>
-      <c r="C117" t="s">
-        <v>472</v>
-      </c>
-      <c r="D117" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118">
-        <v>100569</v>
-      </c>
-      <c r="B118" t="s">
-        <v>475</v>
-      </c>
-      <c r="C118" t="s">
-        <v>476</v>
-      </c>
-      <c r="D118" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119">
-        <v>100540</v>
-      </c>
-      <c r="B119" t="s">
-        <v>477</v>
-      </c>
-      <c r="C119" t="s">
-        <v>478</v>
-      </c>
-      <c r="D119" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120">
-        <v>100791</v>
-      </c>
-      <c r="B120" t="s">
-        <v>479</v>
-      </c>
-      <c r="C120" t="s">
-        <v>480</v>
-      </c>
-      <c r="D120" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121">
-        <v>100805</v>
-      </c>
-      <c r="B121" t="s">
-        <v>485</v>
-      </c>
-      <c r="C121" t="s">
-        <v>486</v>
-      </c>
-      <c r="D121" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122">
-        <v>100620</v>
-      </c>
-      <c r="B122" t="s">
-        <v>491</v>
-      </c>
-      <c r="C122" t="s">
-        <v>250</v>
-      </c>
-      <c r="D122" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <v>100719</v>
-      </c>
-      <c r="B123" t="s">
-        <v>492</v>
-      </c>
-      <c r="C123" t="s">
-        <v>493</v>
-      </c>
-      <c r="D123" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124">
-        <v>100678</v>
-      </c>
-      <c r="B124" t="s">
-        <v>494</v>
-      </c>
-      <c r="C124" t="s">
-        <v>495</v>
-      </c>
-      <c r="D124" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125">
-        <v>100613</v>
-      </c>
-      <c r="B125" t="s">
-        <v>502</v>
-      </c>
-      <c r="C125" t="s">
-        <v>503</v>
-      </c>
-      <c r="D125" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126">
-        <v>100784</v>
-      </c>
-      <c r="B126" t="s">
-        <v>504</v>
-      </c>
-      <c r="C126" t="s">
-        <v>505</v>
-      </c>
-      <c r="D126" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127">
-        <v>100547</v>
-      </c>
-      <c r="B127" t="s">
-        <v>509</v>
-      </c>
-      <c r="C127" t="s">
-        <v>510</v>
-      </c>
-      <c r="D127" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128">
-        <v>100640</v>
-      </c>
-      <c r="B128" t="s">
-        <v>513</v>
-      </c>
-      <c r="C128" t="s">
-        <v>514</v>
-      </c>
-      <c r="D128" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <v>100773</v>
-      </c>
-      <c r="B129" t="s">
-        <v>517</v>
-      </c>
-      <c r="C129" t="s">
-        <v>518</v>
-      </c>
-      <c r="D129" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130">
-        <v>100683</v>
-      </c>
-      <c r="B130" t="s">
-        <v>527</v>
-      </c>
-      <c r="C130" t="s">
-        <v>528</v>
-      </c>
-      <c r="D130" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <v>100712</v>
-      </c>
-      <c r="B131" t="s">
-        <v>529</v>
-      </c>
-      <c r="C131" t="s">
-        <v>530</v>
-      </c>
-      <c r="D131" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>100732</v>
-      </c>
-      <c r="B132" t="s">
-        <v>533</v>
-      </c>
-      <c r="C132" t="s">
-        <v>116</v>
-      </c>
-      <c r="D132" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <v>100506</v>
-      </c>
-      <c r="B133" t="s">
-        <v>534</v>
-      </c>
-      <c r="C133" t="s">
-        <v>535</v>
-      </c>
-      <c r="D133" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <v>100594</v>
-      </c>
-      <c r="B134" t="s">
-        <v>536</v>
-      </c>
-      <c r="C134" t="s">
-        <v>352</v>
-      </c>
-      <c r="D134" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <v>100558</v>
-      </c>
-      <c r="B135" t="s">
-        <v>537</v>
-      </c>
-      <c r="C135" t="s">
-        <v>538</v>
-      </c>
-      <c r="D135" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136">
-        <v>100658</v>
-      </c>
-      <c r="B136" t="s">
-        <v>543</v>
-      </c>
-      <c r="C136" t="s">
-        <v>544</v>
-      </c>
-      <c r="D136" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>100752</v>
-      </c>
-      <c r="B137" t="s">
-        <v>549</v>
-      </c>
-      <c r="C137" t="s">
-        <v>550</v>
-      </c>
-      <c r="D137" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138">
-        <v>100626</v>
-      </c>
-      <c r="B138" t="s">
-        <v>555</v>
-      </c>
-      <c r="C138" t="s">
-        <v>556</v>
-      </c>
-      <c r="D138" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139">
-        <v>100748</v>
-      </c>
-      <c r="B139" t="s">
-        <v>557</v>
-      </c>
-      <c r="C139" t="s">
-        <v>558</v>
-      </c>
-      <c r="D139" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>100585</v>
-      </c>
-      <c r="B140" t="s">
-        <v>559</v>
-      </c>
-      <c r="C140" t="s">
-        <v>560</v>
-      </c>
-      <c r="D140" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>100612</v>
-      </c>
-      <c r="B141" t="s">
-        <v>561</v>
-      </c>
-      <c r="C141" t="s">
-        <v>562</v>
-      </c>
-      <c r="D141" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142">
-        <v>100743</v>
-      </c>
-      <c r="B142" t="s">
-        <v>563</v>
-      </c>
-      <c r="C142" t="s">
-        <v>564</v>
-      </c>
-      <c r="D142" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143">
-        <v>100591</v>
-      </c>
-      <c r="B143" t="s">
-        <v>565</v>
-      </c>
-      <c r="C143" t="s">
-        <v>566</v>
-      </c>
-      <c r="D143" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144">
-        <v>100656</v>
-      </c>
-      <c r="B144" t="s">
-        <v>567</v>
-      </c>
-      <c r="C144" t="s">
-        <v>568</v>
-      </c>
-      <c r="D144" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145">
-        <v>100804</v>
-      </c>
-      <c r="B145" t="s">
-        <v>569</v>
-      </c>
-      <c r="C145" t="s">
-        <v>215</v>
-      </c>
-      <c r="D145" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146">
-        <v>100782</v>
-      </c>
-      <c r="B146" t="s">
-        <v>570</v>
-      </c>
-      <c r="C146" t="s">
-        <v>571</v>
-      </c>
-      <c r="D146" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147">
-        <v>100708</v>
-      </c>
-      <c r="B147" t="s">
-        <v>572</v>
-      </c>
-      <c r="C147" t="s">
-        <v>574</v>
-      </c>
-      <c r="D147" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148">
-        <v>100590</v>
-      </c>
-      <c r="B148" t="s">
-        <v>575</v>
-      </c>
-      <c r="C148" t="s">
-        <v>576</v>
-      </c>
-      <c r="D148" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149">
-        <v>100800</v>
-      </c>
-      <c r="B149" t="s">
-        <v>579</v>
-      </c>
-      <c r="C149" t="s">
-        <v>580</v>
-      </c>
-      <c r="D149" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150">
-        <v>100527</v>
-      </c>
-      <c r="B150" t="s">
-        <v>589</v>
-      </c>
-      <c r="C150" t="s">
-        <v>590</v>
-      </c>
-      <c r="D150" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151">
-        <v>100787</v>
-      </c>
-      <c r="B151" t="s">
-        <v>593</v>
-      </c>
-      <c r="C151" t="s">
-        <v>405</v>
-      </c>
-      <c r="D151" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152">
-        <v>100649</v>
-      </c>
-      <c r="B152" t="s">
-        <v>594</v>
-      </c>
-      <c r="C152" t="s">
-        <v>595</v>
-      </c>
-      <c r="D152" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153">
-        <v>100605</v>
-      </c>
-      <c r="B153" t="s">
-        <v>598</v>
-      </c>
-      <c r="C153" t="s">
-        <v>106</v>
-      </c>
-      <c r="D153" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154">
-        <v>100754</v>
-      </c>
-      <c r="B154" t="s">
-        <v>607</v>
-      </c>
-      <c r="C154" t="s">
-        <v>608</v>
-      </c>
-      <c r="D154" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155">
-        <v>100553</v>
-      </c>
-      <c r="B155" t="s">
-        <v>607</v>
-      </c>
-      <c r="C155" t="s">
-        <v>609</v>
-      </c>
-      <c r="D155" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156">
-        <v>100734</v>
-      </c>
-      <c r="B156" t="s">
-        <v>615</v>
-      </c>
-      <c r="C156" t="s">
-        <v>616</v>
-      </c>
-      <c r="D156" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157">
-        <v>100675</v>
-      </c>
-      <c r="B157" t="s">
-        <v>621</v>
-      </c>
-      <c r="C157" t="s">
-        <v>622</v>
-      </c>
-      <c r="D157" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158">
-        <v>100592</v>
-      </c>
-      <c r="B158" t="s">
-        <v>623</v>
-      </c>
-      <c r="C158" t="s">
-        <v>624</v>
-      </c>
-      <c r="D158" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159">
-        <v>100647</v>
-      </c>
-      <c r="B159" t="s">
-        <v>625</v>
-      </c>
-      <c r="C159" t="s">
-        <v>626</v>
-      </c>
-      <c r="D159" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160">
-        <v>100565</v>
-      </c>
-      <c r="B160" t="s">
-        <v>627</v>
-      </c>
-      <c r="C160" t="s">
-        <v>628</v>
-      </c>
-      <c r="D160" t="s">
-        <v>631</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>